--- a/meta/7-2-1-1.xlsx
+++ b/meta/7-2-1-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwilll\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840F351E-7B3D-43BD-88B3-7ADF1FF17BD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF765E44-A505-4E2B-92FB-44326EA552F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="метаданные СНС 7.3.1.1" sheetId="9" r:id="rId1"/>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -615,7 +615,7 @@
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -623,7 +623,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -631,7 +631,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -645,31 +645,31 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9"/>
@@ -681,7 +681,7 @@
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -689,7 +689,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="170.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -697,7 +697,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -711,7 +711,7 @@
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -719,7 +719,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -733,7 +733,7 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -749,7 +749,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -763,7 +763,7 @@
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -782,23 +782,15 @@
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/7-2-1-1.xlsx
+++ b/meta/7-2-1-1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amamanova\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="210" yWindow="450" windowWidth="15000" windowHeight="7095"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -147,82 +152,10 @@
     <t>(0312) 66 40 44</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Доля возобновляемых источников энергии в общем объеме </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>энергопотребления составляет процент от потребления энергии, получаемой из возобновляемых источников энергии.</t>
-    </r>
-  </si>
-  <si>
-    <t>Под возобновляемыми источниками энергии (ВИЭ) понимаются источники энергии, непрерывно возобновляемые за счет естественно протекающих природных процессов: энергия солнечного излучения, энергия ветра, гидродинамическая энергия воды; геотермальная энергия: тепло грунта, грунтовых вод, рек, водоемов, а также антропогенные источники первичных энергоресурсов: биомасса, биогаз и иное топливо из органических отходов, используемые для производства электрической и (или) тепловой энергии и др.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технологии использования возобновляемых источников энергии являются одним из основных элементов стратегии экологизации экономики во всем мире и решения важнейшей глобальной проблемы изменения климата. Существует ряд определений возобновляемых источников энергии; общим является тот факт, что все представленные формы энергии, несмотря на их потребление, будут доступны в будущем. К ним относятся солнечная энергия, ветер, океан, гидроэнергия, геотермальные ресурсы и биоэнергия (в случае биоэнергии, которая может быть истощена, источники биоэнергии могут быть заменены в краткосрочной и среднесрочной перспективе). Важно отметить, что этот показатель сосредоточен на количестве фактически потребляемой возобновляемой энергии, а не на мощности по производству возобновляемой энергии, которая не всегда может быть полностью использована. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные государственной статистической отчетности (форма №1 ТЭБ «Отчет о топливно-энергетическом балансе») </t>
-  </si>
-  <si>
-    <t>Отчетный топливно-энергетический баланс по форме № 1-ТЭБ «О топливно-энергетическом балансе» составляется всеми хозяйствующими субъектами независимо от количественного суточного расхода ими топлива, теплоэнергии или электроэнергии, форм собственности и подчиненности.Периодичность: годовая</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Доля возобновляемых источников энергии </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в общем объеме энергопотребления  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">рассчитывается путем деления </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">потребленной энергии из возобновляемых источников на общее количество потребленной                    Dвиэ =  V потребл.виэ / V потребл.*100% 
-где,
-V потребл. Виэ – потребление  энергии из возобновляемых источников энергии; 
-V потребл. –  общее потребление топливно-энергетических ресурсов.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Данные по возобновляемых источников энергии формируются согласно государственного классификатора видов экономической деятельности (ГКЭД), который построен на основе Классификации видов экономической деятельности Статистической Комиссии Европейского Союза (NACE). Расчеты производятся в соответствии с методикой расчета топливно-энергетического баланса (ТЭБ).</t>
   </si>
   <si>
     <t>Проводится логический и арифметический контроль отчетных данных.</t>
-  </si>
-  <si>
-    <t>Имеются динамические ряды с 2010 года. Данные публикуются в статистическом сборнике «Топливно-энергетический баланс», размещаются на сайте НСК</t>
-  </si>
-  <si>
-    <t>Данные рассчитываются на республиканском уровне.</t>
   </si>
   <si>
     <r>
@@ -269,12 +202,45 @@
       <t>http://www.stat.kg/ru/statistics/promyshlennost/</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Доля возобновляемых источников энергии в общем объеме энергопотреблении – это процент потребления энергии, полученной из возобновляемых ресурсов. </t>
+  </si>
+  <si>
+    <t>Источником информации является расчетный топливно-энергетический баланс, который составляется на основе данных официальной статистической отчетности по форме № 1-ТЭБ (годовая) «Отчет о топливно-энергетическом балансе». Топливно-энергетический баланс предоставляет информацию о производстве, наличии, распределении и потреблении топлива и других видов энергии.</t>
+  </si>
+  <si>
+    <t>Охвату подлежат хозяйствующие субъекты, имеющие статус юридического лица, независимо от формы собственности, которые производят или потребляют топливо, или следующие виды энергии: нефть, бензин, дизельное топливо, мазут, природный газ, уголь, электроэнергию и тепло. Метод сплошное статистическое обследование на основе обязательной статистической отчетность. Формирование ТЭБ осуществляется путем пересчета всех показателей продуктовых балансов, представленных в натуральном выражении, в тысячи тонн условного топлива (тут), с использованием средних коэффициентов для пересчета продуктовых балансов из натуральных единиц измерения в условные.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Показатель определяется как отношение объема потребления энергии из возобновляемых источников энергии к объему общего потребления топливно-энергетических ресурсов, процентов.
+                                     Dвиэ=Vпвиэ/Vопэ×100    где, 
+Vвиэ – потребление энергии из возобновляемых источников энергии;
+Vопэ – общее потребление топливно-энергетических ресурсов.
+</t>
+  </si>
+  <si>
+    <t>Расчет показателя осуществляется на республиканском уровне.</t>
+  </si>
+  <si>
+    <t>Технологии использования возобновляемых источников энергии являются одними из основных элементов стратегии экологизации экономики во всем мире и решения важнейшей глобальной проблемы изменения климата. Существует ряд определений возобновляемых источников энергии; общим является тот факт, что все представленные формы энергии, несмотря на их потребление, будут доступны в будущем. К ним относятся солнечная энергия, ветер, океан, гидроэнергия, геотермальные ресурсы и биоэнергия (в случае биоэнергии, которая может быть истощена, источники биоэнергии могут быть заменены в краткосрочной и среднесрочной перспективе). Важно отметить, что этот показатель сосредоточен на количестве фактически потребляемой возобновляемой энергии, а не на мощности по производству возобновляемой энергии, которая не всегда может быть полностью использована.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возобновляемые источники энергии (ВИЭ) – это источники энергии, непрерывно возобновляемые за счет естественно протекающих природных процессов. 
+Потребление возобновляемой энергии включает в себя потребление энергии, получаемой из гидроэнергии, твердого биотоплива, ветра, солнца, жидкого биотоплива, биогаза, геотермальных и других источников. 
+</t>
+  </si>
+  <si>
+    <t>В мировой практике для расчета используется показатель тонны нефтяного эквивалента (т.н.э.)</t>
+  </si>
+  <si>
+    <t>Имеются динамические ряды с 2010 года. Данные публикуются в статистическом сборнике «Топливно-энергетический баланс», размещаются на сайте НСК.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +285,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -395,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -418,12 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -434,6 +387,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,20 +593,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.75" customWidth="1"/>
-    <col min="2" max="2" width="62.75" customWidth="1"/>
-    <col min="3" max="26" width="8" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="58.625" customWidth="1"/>
+    <col min="3" max="25" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -658,7 +614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -682,13 +638,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -696,7 +652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -704,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,7 +668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,7 +676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -728,34 +684,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>37</v>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,94 +720,97 @@
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/meta/7-2-1-1.xlsx
+++ b/meta/7-2-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amamanova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\205\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="15000" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.1.1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -228,9 +228,6 @@
     <t xml:space="preserve">Возобновляемые источники энергии (ВИЭ) – это источники энергии, непрерывно возобновляемые за счет естественно протекающих природных процессов. 
 Потребление возобновляемой энергии включает в себя потребление энергии, получаемой из гидроэнергии, твердого биотоплива, ветра, солнца, жидкого биотоплива, биогаза, геотермальных и других источников. 
 </t>
-  </si>
-  <si>
-    <t>В мировой практике для расчета используется показатель тонны нефтяного эквивалента (т.н.э.)</t>
   </si>
   <si>
     <t>Имеются динамические ряды с 2010 года. Данные публикуются в статистическом сборнике «Топливно-энергетический баланс», размещаются на сайте НСК.</t>
@@ -596,7 +593,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -606,7 +603,7 @@
     <col min="3" max="25" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,7 +641,7 @@
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,7 +695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,7 +703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -777,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -792,9 +789,7 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/meta/7-2-1-1.xlsx
+++ b/meta/7-2-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.1.1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>8. Ссылки и документация</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>7.2.1.1</t>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Имеются динамические ряды с 2010 года. Данные публикуются в статистическом сборнике «Топливно-энергетический баланс», размещаются на сайте НСК.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -797,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,7 +1776,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="http://www.stat.kg/"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
